--- a/sequences/07_localizer.xlsx
+++ b/sequences/07_localizer.xlsx
@@ -37,478 +37,580 @@
     <t>flower</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
   </si>
   <si>
     <t>car/car011.png</t>
   </si>
   <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
     <t>flower/flower006.png</t>
   </si>
   <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
   </si>
   <si>
     <t>face/face004.png</t>
   </si>
   <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
   </si>
   <si>
     <t>dog/dog013.png</t>
   </si>
   <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
     <t>face/face008.png</t>
   </si>
   <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
   </si>
   <si>
     <t>face/face028.png</t>
   </si>
   <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
     <t>flower/flower028.png</t>
   </si>
   <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
     <t>flower/flower016.png</t>
   </si>
   <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
     <t>face/face020.png</t>
   </si>
   <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
   </si>
   <si>
     <t>dog/dog036.png</t>
   </si>
   <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
     <t>car/car036.png</t>
   </si>
   <si>
     <t>dog/dog041.png</t>
   </si>
   <si>
-    <t>face/face036.png</t>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
   </si>
   <si>
     <t>flower/flower033.png</t>
   </si>
   <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
     <t>face/face046.png</t>
   </si>
   <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
   </si>
   <si>
     <t>car/car045.png</t>
@@ -517,298 +619,196 @@
     <t>flower/flower040.png</t>
   </si>
   <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
   </si>
   <si>
     <t>dog/dog049.png</t>
   </si>
   <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
     <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.141155937276481</v>
+        <v>1.367091159408484</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.335825830019123</v>
+        <v>1.349693347839296</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.592783623041916</v>
+        <v>1.427925675991607</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.567771842977962</v>
+        <v>1.366958796690978</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.50887419053299</v>
+        <v>1.633401832605207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.645378423568227</v>
+        <v>1.369437785255039</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.629010539065322</v>
+        <v>1.635438641608685</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.505412535900222</v>
+        <v>1.1616119231213</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.589832191755721</v>
+        <v>1.663302320182231</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.600164573433647</v>
+        <v>1.536051512719865</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.419876211173884</v>
+        <v>1.663696352601074</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.370885574078515</v>
+        <v>1.590225257400183</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.50877529183843</v>
+        <v>1.594056554080428</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.344407105752747</v>
+        <v>1.590418779599243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.224613414875333</v>
+        <v>1.288747666149553</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.714697806696071</v>
+        <v>1.503847417188546</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.337568668197392</v>
+        <v>1.503924195792922</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.461299918407572</v>
+        <v>1.386289482384054</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.636288326329274</v>
+        <v>1.410123675108654</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.372492483319647</v>
+        <v>1.298032875045498</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.780447328010985</v>
+        <v>1.663968142942479</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.671212396087951</v>
+        <v>1.600727152785009</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.78957815562945</v>
+        <v>1.568533997630662</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.402426147434904</v>
+        <v>1.534063013435139</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.343286644817954</v>
+        <v>1.500708889709034</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.552097134320723</v>
+        <v>1.64723592788338</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.527228273370031</v>
+        <v>1.493859131504147</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.528847948982873</v>
+        <v>1.325125008261072</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.364114695372669</v>
+        <v>1.502732239994827</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.489432554467881</v>
+        <v>1.498177240656363</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.573468607186842</v>
+        <v>1.525410928148439</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.321124722837176</v>
+        <v>1.328863905058314</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.443430294302679</v>
+        <v>1.450236573863202</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.515896242728206</v>
+        <v>1.435011347499721</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.731836151144483</v>
+        <v>1.410536523737059</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.523348479519971</v>
+        <v>1.785370847453684</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.666056054496349</v>
+        <v>1.649009035020168</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.589442610287238</v>
+        <v>1.400074657214197</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.35280741405952</v>
+        <v>1.370505189684672</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.742416826555127</v>
+        <v>1.452047002831623</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.297869988809524</v>
+        <v>1.768107081206715</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.476379532251765</v>
+        <v>1.389019510051031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.34356835108061</v>
+        <v>1.362048749231231</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.682560222571491</v>
+        <v>1.656431843774804</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.418692962650404</v>
+        <v>1.362509417154335</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.620125897107173</v>
+        <v>1.338818557052752</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.435157528486692</v>
+        <v>1.745584224966842</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.521057762563824</v>
+        <v>1.545877456035597</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.664359534647062</v>
+        <v>1.378895052252979</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.552834401404377</v>
+        <v>1.549979643898016</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.412920648170265</v>
+        <v>1.511456453934984</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.438016538884038</v>
+        <v>1.482873254355398</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.462403992481532</v>
+        <v>1.653974224982499</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.766311553747637</v>
+        <v>1.651463010421188</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.597174789015158</v>
+        <v>1.844584238487545</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.528910924096051</v>
+        <v>1.606701322607279</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.442563355893091</v>
+        <v>1.602456000873469</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.447640824994208</v>
+        <v>1.65829821006774</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.394604807172966</v>
+        <v>1.517448574931915</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.624599088098331</v>
+        <v>1.693102479313373</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.496917439628513</v>
+        <v>1.723911526277415</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.4875751342456</v>
+        <v>1.632977235470202</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.66234529680878</v>
+        <v>1.607120919886515</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.732611288622512</v>
+        <v>1.554002436310545</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.28236477671583</v>
+        <v>1.516771745796291</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.628651464400143</v>
+        <v>1.230571576073028</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.334436807092821</v>
+        <v>1.479639816025033</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.536925590112625</v>
+        <v>1.503500828483719</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.623344058058377</v>
+        <v>1.366425841348373</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.43665991382503</v>
+        <v>1.473060152481753</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.55157655877804</v>
+        <v>1.566537693099302</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.363979880480047</v>
+        <v>1.41739923341308</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.664134104510357</v>
+        <v>1.857394973227273</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.352616344422785</v>
+        <v>1.442167187064293</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.514324031181961</v>
+        <v>1.382007419818293</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.582003657411443</v>
+        <v>1.392877257681091</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.620261510309737</v>
+        <v>1.413968050781838</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.516167964374946</v>
+        <v>1.221243809761477</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.404453211003451</v>
+        <v>1.491031126330395</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.383802282072947</v>
+        <v>1.59202647234369</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.592789614383877</v>
+        <v>1.762106450234644</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.591900073105281</v>
+        <v>1.636386599609843</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.535265712587165</v>
+        <v>1.503345584889359</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.605969166579294</v>
+        <v>1.498037983824894</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.463942291481121</v>
+        <v>1.613557120275418</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.405854864878491</v>
+        <v>1.370639526217843</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.154247619714085</v>
+        <v>1.40661566502875</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.498007563275292</v>
+        <v>1.342927604632871</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.600799899136853</v>
+        <v>1.652342516695678</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.539904775243361</v>
+        <v>1.369527118606469</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.498458065754871</v>
+        <v>1.658678943987421</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.229164774964641</v>
+        <v>1.562087361088431</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.850458905190918</v>
+        <v>1.472451292855791</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.785762739412567</v>
+        <v>1.475802338367534</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.497417537027077</v>
+        <v>1.469751469679332</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.703854752042845</v>
+        <v>1.451500217582127</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.566097703667532</v>
+        <v>1.803869803833297</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.695922284706053</v>
+        <v>1.591501895692003</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.198523529545664</v>
+        <v>1.324184319284028</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.360487449862275</v>
+        <v>1.565398650567879</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.635978967560838</v>
+        <v>1.644833218838083</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.461821083982966</v>
+        <v>1.570469674909502</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.643289013296575</v>
+        <v>1.68842377836946</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.515845229662001</v>
+        <v>1.609435316667434</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.452700447547424</v>
+        <v>1.411756642289846</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.379057033317636</v>
+        <v>1.631544096442329</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.548354071711475</v>
+        <v>1.443835540710999</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.469055029225879</v>
+        <v>1.519245933833301</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.825162859113259</v>
+        <v>1.315864716624137</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.714476059041379</v>
+        <v>1.26304414362643</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.547054665652651</v>
+        <v>1.554478659002536</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.384336463297981</v>
+        <v>1.351536454961053</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.587081315156477</v>
+        <v>1.378217098978227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.633049512474588</v>
+        <v>1.715711420060571</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.513469856103633</v>
+        <v>1.443834645051313</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.338218273751753</v>
+        <v>1.339666763121964</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.504394932370527</v>
+        <v>1.73416052567218</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.497595885871386</v>
+        <v>1.346006063942555</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.626589048309102</v>
+        <v>1.791816744678394</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.629331396904923</v>
+        <v>1.442036578977572</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.680485346532297</v>
+        <v>1.477327189148889</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.573525720937919</v>
+        <v>1.347537352128578</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.374390087297148</v>
+        <v>1.613457158931409</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.407828522896905</v>
+        <v>1.434419891051212</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.268816242170181</v>
+        <v>1.52248958472175</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.44491214454252</v>
+        <v>1.515093266291505</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.833970186407055</v>
+        <v>1.518577445968283</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.569807463233781</v>
+        <v>1.623998433685489</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.643039357363978</v>
+        <v>1.861878256947125</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.418308322065891</v>
+        <v>1.648795055381383</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.438267640996652</v>
+        <v>1.48314254380002</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.426502168098927</v>
+        <v>1.504045230338789</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.391236783126861</v>
+        <v>1.450832100536102</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.245883257472923</v>
+        <v>1.611377562741025</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.655844516011063</v>
+        <v>1.34296886635648</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.468034687054927</v>
+        <v>1.70497953525107</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.263394899075711</v>
+        <v>1.28888875841058</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.518306942862729</v>
+        <v>1.437924705729833</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.771163456722245</v>
+        <v>1.906155511936414</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>1.576795278862152</v>
+        <v>1.637362886099895</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.498453573610586</v>
+        <v>1.466436295449175</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.378704110642874</v>
+        <v>1.209550245781562</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.216557178948796</v>
+        <v>1.593821383736411</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.469711414515059</v>
+        <v>1.561722415174049</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.503802134905926</v>
+        <v>1.600322032414258</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.523523497535129</v>
+        <v>1.43438834580848</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.319731135055032</v>
+        <v>1.32861266588354</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.160943321819885</v>
+        <v>1.394125533301044</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.56489128535531</v>
+        <v>1.448285403902145</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.398322580451693</v>
+        <v>1.436614113184365</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.553654416794378</v>
+        <v>1.665888514887721</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.501399743234594</v>
+        <v>1.636339035903386</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.472083132916332</v>
+        <v>1.640241021830374</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.580908093756033</v>
+        <v>1.698665478551472</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.302179227733045</v>
+        <v>1.386696711665532</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.451454095930657</v>
+        <v>1.250540214452012</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.666778083325528</v>
+        <v>1.484351521968883</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.237342639411076</v>
+        <v>1.195032459906913</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.707706920036313</v>
+        <v>1.480296021813855</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.433973467489733</v>
+        <v>1.590436490983839</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.897623103008571</v>
+        <v>1.586633618645135</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.450736988350947</v>
+        <v>1.548086412065499</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.637264544802473</v>
+        <v>1.36449297342662</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.421154877142667</v>
+        <v>1.464672641448829</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.489154014557055</v>
+        <v>1.579040684629071</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.590520260366398</v>
+        <v>1.571913211744185</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.67782365140586</v>
+        <v>1.281240474525812</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.418012543070825</v>
+        <v>1.278121659701238</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.315225351814935</v>
+        <v>1.507598174625285</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.413601440490731</v>
+        <v>1.629502014107042</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.574473770874863</v>
+        <v>1.586758784003276</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.56675527956921</v>
+        <v>1.575016932657586</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.664723301279909</v>
+        <v>1.494981626370435</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.400360308468634</v>
+        <v>1.576557356367955</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.403863583722104</v>
+        <v>1.502473755836717</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.496997029969895</v>
+        <v>1.656155162066443</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.391971822207307</v>
+        <v>1.451046959069681</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.430497322410565</v>
+        <v>1.538795501680874</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.609724681194101</v>
+        <v>1.573969161204561</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.392713008532968</v>
+        <v>1.351544445351604</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.568112642124705</v>
+        <v>1.519989302814851</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.564877478494061</v>
+        <v>1.772606322923903</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.583710143838184</v>
+        <v>1.623444179837116</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.364977571929932</v>
+        <v>1.331205904269608</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.507268185756322</v>
+        <v>1.496645199354767</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.625102490727127</v>
+        <v>1.374984184805607</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.515537900958929</v>
+        <v>1.398687784272699</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.380612882611382</v>
+        <v>1.734799603190465</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.347150845625247</v>
+        <v>1.380689665520934</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.522816126040442</v>
+        <v>1.531014754349072</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.430909806539996</v>
+        <v>1.368544780271875</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.692466579935642</v>
+        <v>1.447524239074625</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.273295982120111</v>
+        <v>1.507672955838753</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.201156108779377</v>
+        <v>1.492593733605128</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.556086638005105</v>
+        <v>1.518276256442947</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.610160798985625</v>
+        <v>1.436220764293052</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.251331017683316</v>
+        <v>1.540478388191453</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.302725601447219</v>
+        <v>1.52291667957203</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.385389472901982</v>
+        <v>1.399524552858343</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.29543383604275</v>
+        <v>1.553527119916142</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.150396584962226</v>
+        <v>1.412847424128639</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.268860744776759</v>
+        <v>1.311063637677153</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.39284732337352</v>
+        <v>1.742529226196941</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.383932537093639</v>
+        <v>1.192751734786381</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.635819479308782</v>
+        <v>1.611730814293174</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.490606286420016</v>
+        <v>1.585925879869783</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.337549336741555</v>
+        <v>1.4833697395046</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.578263043525216</v>
+        <v>1.52193727355986</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.472025688074044</v>
+        <v>1.444328809056614</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.620616018527707</v>
+        <v>1.583841392265475</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>1.136018053718242</v>
+        <v>1.715966862604918</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.299680809673681</v>
+        <v>1.498043025204868</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.609804468166156</v>
+        <v>1.619886114379328</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.360337457004849</v>
+        <v>1.30551179278332</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.769445339019057</v>
+        <v>1.672859438649203</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.28143795618129</v>
+        <v>1.452619223472489</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.418274435752891</v>
+        <v>1.564865959222751</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.491658874406943</v>
+        <v>1.701697428645516</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.593591194259925</v>
+        <v>1.636025398069372</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.61332932326049</v>
+        <v>1.487026792256641</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.418620570592442</v>
+        <v>1.727142665327319</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.499830766021661</v>
+        <v>1.468176627917023</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.465290052859329</v>
+        <v>1.498329317778608</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.43783652742666</v>
+        <v>1.472123046381201</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.479889034765445</v>
+        <v>1.456715425215385</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.763509591988534</v>
+        <v>1.445457404448419</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.394351919773317</v>
+        <v>1.321421891925688</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.570839356326858</v>
+        <v>1.613547863260127</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.58170306867314</v>
+        <v>1.391862338432667</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.454473148790032</v>
+        <v>1.517629529967339</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.547886572670194</v>
+        <v>1.506533802044322</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.691688469620221</v>
+        <v>1.567531397655689</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.497915999373183</v>
+        <v>1.423570003221641</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.354730554702474</v>
+        <v>1.604479898830642</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.422682813616237</v>
+        <v>1.407933420476673</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.407114119200226</v>
+        <v>1.630017105518244</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.544832500996685</v>
+        <v>1.507263244999898</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.468214093866355</v>
+        <v>1.468957462034068</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.584538197039798</v>
+        <v>1.572859757513774</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.671856534284906</v>
+        <v>1.597288646543571</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.359568901220175</v>
+        <v>1.478491965528668</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.502786193316234</v>
+        <v>1.409957845739557</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.456653503309026</v>
+        <v>1.400817865686742</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.513797027381226</v>
+        <v>1.523019275063842</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.393525920421026</v>
+        <v>1.466730844390289</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.216688812451443</v>
+        <v>1.513257061261276</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.392613026975428</v>
+        <v>1.894262093441067</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.58775675470228</v>
+        <v>1.265537426195677</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.416639940785744</v>
+        <v>1.564151434603208</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.335576513144177</v>
+        <v>1.804556231140245</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.752663891097699</v>
+        <v>1.471111152281109</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>1.625250237729921</v>
+        <v>1.776955306992185</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.570090624563087</v>
+        <v>1.691790856916963</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.641232399547186</v>
+        <v>1.292448256812027</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.255658039168754</v>
+        <v>1.528177755172451</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.59810540515446</v>
+        <v>1.486868475946981</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/07_localizer.xlsx
+++ b/sequences/07_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.367091159408484</v>
+        <v>1.377562433267847</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.349693347839296</v>
+        <v>1.656542522600993</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.427925675991607</v>
+        <v>1.373670822011157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.366958796690978</v>
+        <v>1.368631951053523</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.633401832605207</v>
+        <v>1.521112141870204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.369437785255039</v>
+        <v>1.486637310866693</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.635438641608685</v>
+        <v>1.421103910810306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.1616119231213</v>
+        <v>1.349089202296867</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.663302320182231</v>
+        <v>1.45736420022782</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.536051512719865</v>
+        <v>1.397229855069559</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.663696352601074</v>
+        <v>1.523348760675455</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.590225257400183</v>
+        <v>1.557147456276107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.594056554080428</v>
+        <v>1.343091466766174</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.590418779599243</v>
+        <v>1.643136348095374</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.288747666149553</v>
+        <v>1.316877413066935</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.503847417188546</v>
+        <v>1.433979918580691</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.503924195792922</v>
+        <v>1.21967557665814</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.386289482384054</v>
+        <v>1.4559590828135</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.410123675108654</v>
+        <v>1.523219319576321</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.298032875045498</v>
+        <v>1.756605399777762</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.663968142942479</v>
+        <v>1.51080680070669</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.600727152785009</v>
+        <v>1.63899925884596</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.568533997630662</v>
+        <v>1.352537725873058</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.534063013435139</v>
+        <v>1.424009087950544</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.500708889709034</v>
+        <v>1.36170303789677</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.64723592788338</v>
+        <v>1.541966539208967</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.493859131504147</v>
+        <v>1.227564994183212</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.325125008261072</v>
+        <v>1.527348523223351</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.502732239994827</v>
+        <v>1.300934135867577</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.498177240656363</v>
+        <v>1.247697532659266</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.525410928148439</v>
+        <v>1.544440479858173</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.328863905058314</v>
+        <v>1.457868412027087</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.450236573863202</v>
+        <v>1.478222590335639</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.435011347499721</v>
+        <v>1.688270587051199</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.410536523737059</v>
+        <v>1.481190511733006</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.785370847453684</v>
+        <v>1.687446578227654</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.649009035020168</v>
+        <v>1.553618302151035</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.400074657214197</v>
+        <v>1.651282506251788</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.370505189684672</v>
+        <v>1.368534308005602</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.452047002831623</v>
+        <v>1.611983163441432</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.768107081206715</v>
+        <v>1.65620980634406</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.389019510051031</v>
+        <v>1.43259268319358</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.362048749231231</v>
+        <v>1.481306850991117</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.656431843774804</v>
+        <v>1.594121681177984</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.362509417154335</v>
+        <v>1.558924247611785</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.338818557052752</v>
+        <v>1.786267541850648</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.745584224966842</v>
+        <v>1.127979113976744</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.545877456035597</v>
+        <v>1.434814423823793</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.378895052252979</v>
+        <v>1.564011153643101</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.549979643898016</v>
+        <v>1.513573683408761</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.511456453934984</v>
+        <v>1.384324476817638</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.482873254355398</v>
+        <v>1.677266591296444</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.653974224982499</v>
+        <v>1.524051745669618</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.651463010421188</v>
+        <v>1.567257065623515</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.844584238487545</v>
+        <v>1.739169589549413</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1.606701322607279</v>
+        <v>1.511484427276621</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.602456000873469</v>
+        <v>1.33920757750852</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.65829821006774</v>
+        <v>1.389814908033124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.517448574931915</v>
+        <v>1.698125536928808</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.693102479313373</v>
+        <v>1.360943335422087</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.723911526277415</v>
+        <v>1.504761375986695</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.632977235470202</v>
+        <v>1.631679112444969</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.607120919886515</v>
+        <v>1.227966639752675</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.554002436310545</v>
+        <v>1.370642417293031</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.516771745796291</v>
+        <v>1.42229136226671</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.230571576073028</v>
+        <v>1.452000361923741</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.479639816025033</v>
+        <v>1.865180420859001</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.503500828483719</v>
+        <v>1.332379325404871</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.366425841348373</v>
+        <v>1.696156845119532</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.473060152481753</v>
+        <v>1.364328728629443</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.566537693099302</v>
+        <v>1.454268942954691</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.41739923341308</v>
+        <v>1.544581786376917</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.857394973227273</v>
+        <v>1.285078556277171</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.442167187064293</v>
+        <v>1.563582341169474</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.382007419818293</v>
+        <v>1.32507300804342</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.392877257681091</v>
+        <v>1.460548772954516</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.413968050781838</v>
+        <v>1.702053837443019</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.221243809761477</v>
+        <v>1.378952051888095</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.491031126330395</v>
+        <v>1.615199059324204</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.59202647234369</v>
+        <v>1.554651725517817</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.762106450234644</v>
+        <v>1.471506643679116</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.636386599609843</v>
+        <v>1.739088563264802</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.503345584889359</v>
+        <v>1.325388626001372</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.498037983824894</v>
+        <v>1.613517859196806</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.613557120275418</v>
+        <v>1.343992784940343</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.370639526217843</v>
+        <v>1.502292906411123</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.40661566502875</v>
+        <v>1.549830039199496</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.342927604632871</v>
+        <v>1.521618410215156</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.652342516695678</v>
+        <v>1.771212497218769</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.369527118606469</v>
+        <v>1.725366050924463</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.658678943987421</v>
+        <v>1.365106069723943</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.562087361088431</v>
+        <v>1.635141580226696</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.472451292855791</v>
+        <v>1.464479795239404</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.475802338367534</v>
+        <v>1.753543315376064</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.469751469679332</v>
+        <v>1.58584869156151</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.451500217582127</v>
+        <v>1.584010349053651</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.803869803833297</v>
+        <v>1.268872864034063</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.591501895692003</v>
+        <v>1.53292014839352</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.324184319284028</v>
+        <v>1.545567406016398</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.565398650567879</v>
+        <v>1.533091056927998</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.644833218838083</v>
+        <v>1.689330312409316</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.570469674909502</v>
+        <v>1.592537124940032</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.68842377836946</v>
+        <v>1.502482883723405</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.609435316667434</v>
+        <v>1.587665620370492</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.411756642289846</v>
+        <v>1.518006061223812</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.631544096442329</v>
+        <v>1.677821815974711</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.443835540710999</v>
+        <v>1.363622556671183</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.519245933833301</v>
+        <v>1.513705680575433</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.315864716624137</v>
+        <v>1.598559497709636</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.26304414362643</v>
+        <v>1.508691680970118</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1.554478659002536</v>
+        <v>1.472160873827858</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.351536454961053</v>
+        <v>1.446827969772357</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.378217098978227</v>
+        <v>1.380750859414854</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.715711420060571</v>
+        <v>1.51972805148188</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.443834645051313</v>
+        <v>1.196140497229566</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.339666763121964</v>
+        <v>1.348123872583464</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.73416052567218</v>
+        <v>1.698947746712233</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.346006063942555</v>
+        <v>1.290040754200888</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.791816744678394</v>
+        <v>1.461098073468467</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.442036578977572</v>
+        <v>1.652442896070515</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.477327189148889</v>
+        <v>1.655623734422858</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.347537352128578</v>
+        <v>1.577194103536227</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.613457158931409</v>
+        <v>1.472472267289228</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.434419891051212</v>
+        <v>1.528467699141828</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.52248958472175</v>
+        <v>1.508838407084659</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.515093266291505</v>
+        <v>1.680617323651407</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.518577445968283</v>
+        <v>1.240794060674488</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.623998433685489</v>
+        <v>1.515004819273441</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.861878256947125</v>
+        <v>1.473145425624711</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.648795055381383</v>
+        <v>1.688861056498399</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.48314254380002</v>
+        <v>1.588505217783304</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.504045230338789</v>
+        <v>1.355483697036952</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.450832100536102</v>
+        <v>1.513603758010027</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.611377562741025</v>
+        <v>1.449592657953794</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.34296886635648</v>
+        <v>1.366899916439123</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.70497953525107</v>
+        <v>1.670895229610272</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.28888875841058</v>
+        <v>1.714400125973816</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.437924705729833</v>
+        <v>1.457139779097505</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.906155511936414</v>
+        <v>1.390510144580287</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.637362886099895</v>
+        <v>1.485307364721641</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.466436295449175</v>
+        <v>1.334686394274989</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.209550245781562</v>
+        <v>1.472757276838855</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.593821383736411</v>
+        <v>1.552320188829168</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.561722415174049</v>
+        <v>1.231855222171206</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.600322032414258</v>
+        <v>1.29660301597411</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.43438834580848</v>
+        <v>1.49325473641984</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.32861266588354</v>
+        <v>1.394659534043801</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.394125533301044</v>
+        <v>1.393425824334955</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.448285403902145</v>
+        <v>1.305794772281396</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.436614113184365</v>
+        <v>1.495699542963495</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.665888514887721</v>
+        <v>1.227795263965142</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.636339035903386</v>
+        <v>1.324677835256825</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.640241021830374</v>
+        <v>1.520606278282939</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.698665478551472</v>
+        <v>1.399850291848267</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.386696711665532</v>
+        <v>1.510347745682258</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.250540214452012</v>
+        <v>1.336341316592295</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.484351521968883</v>
+        <v>1.676869535284338</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.195032459906913</v>
+        <v>1.4309902599358</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.480296021813855</v>
+        <v>1.350872692590523</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.590436490983839</v>
+        <v>1.697473751160031</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.586633618645135</v>
+        <v>1.475806444855276</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.548086412065499</v>
+        <v>1.541537956623124</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.36449297342662</v>
+        <v>1.832113303593111</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.464672641448829</v>
+        <v>1.479127809505902</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.579040684629071</v>
+        <v>1.582759400578321</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.571913211744185</v>
+        <v>1.411072698134213</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.281240474525812</v>
+        <v>1.196564520311726</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.278121659701238</v>
+        <v>1.263880912385476</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.507598174625285</v>
+        <v>1.648227628578551</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.629502014107042</v>
+        <v>1.833279332953867</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.586758784003276</v>
+        <v>1.511435768568836</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.575016932657586</v>
+        <v>1.673881967490709</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.494981626370435</v>
+        <v>1.375135370978663</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.576557356367955</v>
+        <v>1.466488281107012</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.502473755836717</v>
+        <v>1.668277153391588</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.656155162066443</v>
+        <v>1.425367819206797</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.451046959069681</v>
+        <v>1.408898482719209</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.538795501680874</v>
+        <v>1.609344196791755</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.573969161204561</v>
+        <v>1.413380618458346</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.351544445351604</v>
+        <v>1.361958333161726</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.519989302814851</v>
+        <v>1.518372811262888</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.772606322923903</v>
+        <v>1.642314754279534</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.623444179837116</v>
+        <v>1.384237729185289</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.331205904269608</v>
+        <v>1.732603345444097</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.496645199354767</v>
+        <v>1.676949055558758</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.374984184805607</v>
+        <v>1.527183472617712</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.398687784272699</v>
+        <v>1.626402191159827</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.734799603190465</v>
+        <v>1.610347273455965</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.380689665520934</v>
+        <v>1.476555685115414</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.531014754349072</v>
+        <v>1.4415843395663</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.368544780271875</v>
+        <v>1.437051265571002</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.447524239074625</v>
+        <v>1.382437189991322</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.507672955838753</v>
+        <v>1.447351938652376</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.492593733605128</v>
+        <v>1.379080663721675</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.518276256442947</v>
+        <v>1.595112313439913</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.436220764293052</v>
+        <v>1.538366462217474</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.540478388191453</v>
+        <v>1.508105910675332</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.52291667957203</v>
+        <v>1.356551706026537</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.399524552858343</v>
+        <v>1.640531148583038</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.553527119916142</v>
+        <v>1.423878300714666</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.412847424128639</v>
+        <v>1.427598702994708</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.311063637677153</v>
+        <v>1.395546803805833</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.742529226196941</v>
+        <v>1.543310857973357</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.192751734786381</v>
+        <v>1.388840908811591</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.611730814293174</v>
+        <v>1.422672642051214</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.585925879869783</v>
+        <v>1.208270226812297</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.4833697395046</v>
+        <v>1.619060896249601</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.52193727355986</v>
+        <v>1.571186079544447</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.444328809056614</v>
+        <v>1.405191336077208</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.583841392265475</v>
+        <v>1.778271075078509</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.715966862604918</v>
+        <v>1.461865615403985</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.498043025204868</v>
+        <v>1.685038669327772</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.619886114379328</v>
+        <v>1.656784957704377</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.30551179278332</v>
+        <v>1.435890416822979</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.672859438649203</v>
+        <v>1.353763742195989</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.452619223472489</v>
+        <v>1.417512746772604</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.564865959222751</v>
+        <v>1.372108758763052</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.701697428645516</v>
+        <v>1.498132981306896</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.636025398069372</v>
+        <v>1.527100067619199</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.487026792256641</v>
+        <v>1.387461367321818</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.727142665327319</v>
+        <v>1.609895157800058</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.468176627917023</v>
+        <v>1.832816052605512</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.498329317778608</v>
+        <v>1.442271742545335</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.472123046381201</v>
+        <v>1.362470089085698</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.456715425215385</v>
+        <v>1.421599306878046</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.445457404448419</v>
+        <v>1.353435515782635</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.321421891925688</v>
+        <v>1.717664333774877</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.613547863260127</v>
+        <v>1.6351157325816</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.391862338432667</v>
+        <v>1.492655534158423</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.517629529967339</v>
+        <v>1.531808890089801</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.506533802044322</v>
+        <v>1.736262406042797</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.567531397655689</v>
+        <v>1.420512094467421</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.423570003221641</v>
+        <v>1.372077227959843</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.604479898830642</v>
+        <v>1.495258310280601</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.407933420476673</v>
+        <v>1.877970286868676</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.630017105518244</v>
+        <v>1.275241919291222</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.507263244999898</v>
+        <v>1.07075092845266</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.468957462034068</v>
+        <v>1.518817501470927</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.572859757513774</v>
+        <v>1.55564094201263</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.597288646543571</v>
+        <v>1.528803527262935</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>1.478491965528668</v>
+        <v>1.462673731419305</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.409957845739557</v>
+        <v>1.357249344552607</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.400817865686742</v>
+        <v>1.664862307722499</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.523019275063842</v>
+        <v>1.452394114270207</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.466730844390289</v>
+        <v>1.5893067750332</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.513257061261276</v>
+        <v>1.503345679281469</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.894262093441067</v>
+        <v>1.546610233864496</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.265537426195677</v>
+        <v>1.955846224741813</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.564151434603208</v>
+        <v>1.594590090145543</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.804556231140245</v>
+        <v>1.60155080733283</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.471111152281109</v>
+        <v>1.563942315248528</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.776955306992185</v>
+        <v>1.514819144195026</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.691790856916963</v>
+        <v>1.604857510824006</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.292448256812027</v>
+        <v>1.518022785706217</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.528177755172451</v>
+        <v>1.723722205900952</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.486868475946981</v>
+        <v>1.576352843409471</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/07_localizer.xlsx
+++ b/sequences/07_localizer.xlsx
@@ -37,286 +37,388 @@
     <t>dog</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
     <t>face/face035.jpg</t>
   </si>
   <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
   </si>
   <si>
     <t>flower/flower047.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
     <t>flower/flower056.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>house/house059.jpg</t>
@@ -325,490 +427,388 @@
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
   </si>
   <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
     <t>face/face068.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
   </si>
   <si>
     <t>house/house093.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
   </si>
   <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
   </si>
   <si>
     <t>house/house081.jpg</t>
   </si>
   <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
     <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.377562433267847</v>
+        <v>1.558547973451008</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.656542522600993</v>
+        <v>1.437120105410705</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.373670822011157</v>
+        <v>1.223947727756088</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.368631951053523</v>
+        <v>1.402074238179863</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.521112141870204</v>
+        <v>1.802646458232707</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.486637310866693</v>
+        <v>1.71556458415213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.421103910810306</v>
+        <v>1.721968785122667</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.349089202296867</v>
+        <v>1.506375513638632</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.45736420022782</v>
+        <v>1.448244159234236</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.397229855069559</v>
+        <v>1.647333090983739</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.523348760675455</v>
+        <v>1.637381836327245</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.557147456276107</v>
+        <v>1.592910712105298</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.343091466766174</v>
+        <v>1.661914517996462</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.643136348095374</v>
+        <v>1.673437854119978</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.316877413066935</v>
+        <v>1.511831846895897</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.433979918580691</v>
+        <v>1.393188259489357</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.21967557665814</v>
+        <v>1.392277968065922</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.4559590828135</v>
+        <v>1.703731722851421</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.523219319576321</v>
+        <v>1.66815688775076</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.756605399777762</v>
+        <v>1.759325072633395</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.51080680070669</v>
+        <v>1.152401891473451</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.63899925884596</v>
+        <v>1.270185348881037</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.352537725873058</v>
+        <v>1.827001053765101</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.424009087950544</v>
+        <v>1.321660873450815</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.36170303789677</v>
+        <v>1.490230854477196</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.541966539208967</v>
+        <v>1.656385491783707</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.227564994183212</v>
+        <v>1.589972487341778</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.527348523223351</v>
+        <v>1.40610683802747</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.300934135867577</v>
+        <v>1.373804642893297</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.247697532659266</v>
+        <v>1.205860884904945</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.544440479858173</v>
+        <v>1.401013350247662</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.457868412027087</v>
+        <v>1.518540255550009</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.478222590335639</v>
+        <v>1.42539787015906</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.688270587051199</v>
+        <v>1.358292423778232</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.481190511733006</v>
+        <v>1.355577636838351</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.687446578227654</v>
+        <v>1.522084111406599</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.553618302151035</v>
+        <v>1.379312151592624</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.651282506251788</v>
+        <v>1.280967033795406</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.368534308005602</v>
+        <v>1.560662862325888</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.611983163441432</v>
+        <v>1.60134142631768</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.65620980634406</v>
+        <v>1.292865985345958</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.43259268319358</v>
+        <v>1.453987632199169</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.481306850991117</v>
+        <v>1.484354823062338</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.594121681177984</v>
+        <v>1.44294200794156</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.558924247611785</v>
+        <v>1.239359852215965</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.786267541850648</v>
+        <v>1.489004783456354</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.127979113976744</v>
+        <v>1.578446597088788</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.434814423823793</v>
+        <v>1.511690739893712</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.564011153643101</v>
+        <v>1.527597696417939</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.513573683408761</v>
+        <v>1.436007104468105</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.384324476817638</v>
+        <v>1.675887878569545</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.677266591296444</v>
+        <v>1.747992777167201</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.524051745669618</v>
+        <v>1.595930192689444</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.567257065623515</v>
+        <v>1.424513325145584</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.739169589549413</v>
+        <v>1.464265653738508</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.511484427276621</v>
+        <v>1.422446807968095</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.33920757750852</v>
+        <v>1.808289293796618</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.389814908033124</v>
+        <v>1.491794705384747</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.698125536928808</v>
+        <v>1.424054451032962</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.360943335422087</v>
+        <v>1.546092843861874</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.504761375986695</v>
+        <v>1.541525423353807</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.631679112444969</v>
+        <v>1.597842122273097</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.227966639752675</v>
+        <v>1.695698353255528</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.370642417293031</v>
+        <v>1.18012268650068</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.42229136226671</v>
+        <v>1.61212810815849</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.452000361923741</v>
+        <v>1.467305879223243</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.865180420859001</v>
+        <v>1.832004106336889</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.332379325404871</v>
+        <v>1.452928529556143</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.696156845119532</v>
+        <v>1.493106154299716</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.364328728629443</v>
+        <v>1.597835442861039</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.454268942954691</v>
+        <v>1.209985486136433</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.544581786376917</v>
+        <v>1.324474805338741</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.285078556277171</v>
+        <v>1.547543418876951</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.563582341169474</v>
+        <v>1.1019658294431</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.32507300804342</v>
+        <v>1.604436563717554</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.460548772954516</v>
+        <v>1.420353651984681</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.702053837443019</v>
+        <v>1.360885230476446</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.378952051888095</v>
+        <v>1.495971163370146</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.615199059324204</v>
+        <v>1.547755213369278</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.554651725517817</v>
+        <v>1.685044556715065</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.471506643679116</v>
+        <v>1.60067223861534</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.739088563264802</v>
+        <v>1.468323027755263</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.325388626001372</v>
+        <v>1.755305359525347</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.613517859196806</v>
+        <v>1.62699744953263</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.343992784940343</v>
+        <v>1.761191274258352</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.502292906411123</v>
+        <v>1.518506874434495</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.549830039199496</v>
+        <v>1.551939372137956</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1.521618410215156</v>
+        <v>1.431258093181746</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.771212497218769</v>
+        <v>1.687014771935242</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.725366050924463</v>
+        <v>1.594956409284006</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.365106069723943</v>
+        <v>1.292331904850134</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.635141580226696</v>
+        <v>1.358250155502414</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.464479795239404</v>
+        <v>1.550504082665696</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.753543315376064</v>
+        <v>1.313656183268074</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.58584869156151</v>
+        <v>1.559534954522178</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.584010349053651</v>
+        <v>1.181364316144068</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.268872864034063</v>
+        <v>1.500498296447278</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.53292014839352</v>
+        <v>1.324624412109894</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.545567406016398</v>
+        <v>1.634492198045211</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.533091056927998</v>
+        <v>1.534898759515295</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.689330312409316</v>
+        <v>1.557137505620345</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.592537124940032</v>
+        <v>1.446682911732237</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.502482883723405</v>
+        <v>1.426343664901983</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.587665620370492</v>
+        <v>1.62493786071941</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.518006061223812</v>
+        <v>1.914660350656788</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.677821815974711</v>
+        <v>1.682295203775592</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.363622556671183</v>
+        <v>1.739404919877387</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.513705680575433</v>
+        <v>1.708685761121606</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.598559497709636</v>
+        <v>1.479463526641253</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.508691680970118</v>
+        <v>1.439764298124952</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.472160873827858</v>
+        <v>1.310889797994684</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.446827969772357</v>
+        <v>1.533796045149375</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.380750859414854</v>
+        <v>1.45100712575009</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.51972805148188</v>
+        <v>1.681676623265558</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.196140497229566</v>
+        <v>1.577998320879911</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.348123872583464</v>
+        <v>1.481858281160939</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.698947746712233</v>
+        <v>1.441555950668157</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.290040754200888</v>
+        <v>1.665977948160486</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.461098073468467</v>
+        <v>1.590070798073748</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.652442896070515</v>
+        <v>1.434179096112315</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.655623734422858</v>
+        <v>1.533449655865085</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.577194103536227</v>
+        <v>1.316482170653309</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.472472267289228</v>
+        <v>1.343419107465441</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.528467699141828</v>
+        <v>1.491667859022879</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.508838407084659</v>
+        <v>1.500987474501917</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.680617323651407</v>
+        <v>1.628142779837937</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.240794060674488</v>
+        <v>1.483642301416328</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.515004819273441</v>
+        <v>1.390621438616306</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.473145425624711</v>
+        <v>1.298245288150385</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.688861056498399</v>
+        <v>1.413148666613319</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.588505217783304</v>
+        <v>1.687728517566143</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.355483697036952</v>
+        <v>1.621174314324783</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.513603758010027</v>
+        <v>1.469493068808457</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.449592657953794</v>
+        <v>1.654340796530313</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.366899916439123</v>
+        <v>1.687025109256486</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.670895229610272</v>
+        <v>1.49845698021434</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.714400125973816</v>
+        <v>1.321458754869663</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.457139779097505</v>
+        <v>1.230700153278188</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.390510144580287</v>
+        <v>1.612446935966894</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.485307364721641</v>
+        <v>1.538979653515611</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.334686394274989</v>
+        <v>1.330423630476953</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.472757276838855</v>
+        <v>1.530708034486366</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.552320188829168</v>
+        <v>1.590196481993088</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.231855222171206</v>
+        <v>1.647762473543877</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.29660301597411</v>
+        <v>1.440423498051528</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.49325473641984</v>
+        <v>1.446826903127682</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.394659534043801</v>
+        <v>1.53241262578368</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.393425824334955</v>
+        <v>1.490480932459574</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.305794772281396</v>
+        <v>1.488251862673107</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.495699542963495</v>
+        <v>1.424929747932437</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.227795263965142</v>
+        <v>1.524532174035733</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.324677835256825</v>
+        <v>1.457514413161853</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.520606278282939</v>
+        <v>1.406019649152687</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.399850291848267</v>
+        <v>1.640888544677193</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.510347745682258</v>
+        <v>1.574676197225001</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.336341316592295</v>
+        <v>1.54168134130908</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.676869535284338</v>
+        <v>1.683182723498428</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.4309902599358</v>
+        <v>1.754474428650296</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.350872692590523</v>
+        <v>1.516470460504572</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.697473751160031</v>
+        <v>1.555903676809052</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.475806444855276</v>
+        <v>1.369352145627446</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.541537956623124</v>
+        <v>1.583569680367346</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.832113303593111</v>
+        <v>1.229807839273028</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.479127809505902</v>
+        <v>1.568644755045074</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.582759400578321</v>
+        <v>1.650494469658463</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.411072698134213</v>
+        <v>1.673304304013226</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.196564520311726</v>
+        <v>1.57688541383555</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.263880912385476</v>
+        <v>1.486262115410274</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.648227628578551</v>
+        <v>1.527100182524585</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.833279332953867</v>
+        <v>1.267722242525759</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.511435768568836</v>
+        <v>1.422118875012734</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.673881967490709</v>
+        <v>1.473325481405969</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.375135370978663</v>
+        <v>1.438661823575596</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.466488281107012</v>
+        <v>1.591426437142232</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.668277153391588</v>
+        <v>1.630571245792824</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.425367819206797</v>
+        <v>1.504755969951058</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.408898482719209</v>
+        <v>1.458298186050749</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.609344196791755</v>
+        <v>1.480892567154579</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.413380618458346</v>
+        <v>1.592693555376044</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.361958333161726</v>
+        <v>1.779740013601679</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.518372811262888</v>
+        <v>1.066926180664486</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.642314754279534</v>
+        <v>1.678226060440992</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.384237729185289</v>
+        <v>1.570138213897005</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.732603345444097</v>
+        <v>1.521058947596668</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.676949055558758</v>
+        <v>1.331569155371739</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.527183472617712</v>
+        <v>1.504261043531137</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.626402191159827</v>
+        <v>1.651897920068534</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.610347273455965</v>
+        <v>1.665769037775409</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.476555685115414</v>
+        <v>1.742889787821366</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.4415843395663</v>
+        <v>1.539972765337896</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.437051265571002</v>
+        <v>1.380630390461228</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.382437189991322</v>
+        <v>1.349897286077762</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.447351938652376</v>
+        <v>1.278596637590028</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.379080663721675</v>
+        <v>1.646042060823923</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.595112313439913</v>
+        <v>1.468051596652765</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.538366462217474</v>
+        <v>1.512702672187839</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.508105910675332</v>
+        <v>1.557364218969714</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.356551706026537</v>
+        <v>1.295751518278112</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.640531148583038</v>
+        <v>1.366687282007656</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.423878300714666</v>
+        <v>1.446349323335137</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.427598702994708</v>
+        <v>1.491587345263099</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.395546803805833</v>
+        <v>1.573173898870978</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.543310857973357</v>
+        <v>1.516158610865525</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.388840908811591</v>
+        <v>1.308492677008795</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.422672642051214</v>
+        <v>1.750879776226381</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.208270226812297</v>
+        <v>1.635536607780253</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.619060896249601</v>
+        <v>1.917667368036394</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.571186079544447</v>
+        <v>1.525158643078127</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.405191336077208</v>
+        <v>1.465888133123811</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.778271075078509</v>
+        <v>1.59162079408457</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.461865615403985</v>
+        <v>1.82940047459664</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.685038669327772</v>
+        <v>1.728460342600418</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.656784957704377</v>
+        <v>1.377651101641411</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.435890416822979</v>
+        <v>1.46108781662613</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.353763742195989</v>
+        <v>1.52209660550637</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.417512746772604</v>
+        <v>1.732473083109865</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>1.372108758763052</v>
+        <v>1.517798815382181</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.498132981306896</v>
+        <v>1.75595108550744</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.527100067619199</v>
+        <v>1.460795847200484</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.387461367321818</v>
+        <v>1.416843177318649</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.609895157800058</v>
+        <v>1.723320011909805</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.832816052605512</v>
+        <v>1.504484384217774</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.442271742545335</v>
+        <v>1.350377805983902</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.362470089085698</v>
+        <v>1.479493986286228</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.421599306878046</v>
+        <v>1.629653630048869</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.353435515782635</v>
+        <v>1.744910592097889</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.717664333774877</v>
+        <v>1.590211394968416</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.6351157325816</v>
+        <v>1.672000799672719</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.492655534158423</v>
+        <v>1.176360802465827</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.531808890089801</v>
+        <v>1.513600530942162</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.736262406042797</v>
+        <v>1.386604843942579</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.420512094467421</v>
+        <v>1.515746096148446</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.372077227959843</v>
+        <v>1.536003798814616</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.495258310280601</v>
+        <v>1.449049504909698</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.877970286868676</v>
+        <v>1.445378758450668</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.275241919291222</v>
+        <v>1.519174716799824</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.07075092845266</v>
+        <v>1.400286005075912</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.518817501470927</v>
+        <v>1.388789073885629</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.55564094201263</v>
+        <v>1.401909404428565</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.528803527262935</v>
+        <v>1.663727182173622</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.462673731419305</v>
+        <v>1.457083821963609</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.357249344552607</v>
+        <v>1.366909874213089</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.664862307722499</v>
+        <v>1.426373807373419</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.452394114270207</v>
+        <v>1.42761122256516</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.5893067750332</v>
+        <v>1.506707945021482</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.503345679281469</v>
+        <v>1.510240201405638</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.546610233864496</v>
+        <v>1.568548066224512</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.955846224741813</v>
+        <v>1.406821739849239</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.594590090145543</v>
+        <v>1.370556186956066</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.60155080733283</v>
+        <v>1.684997069350586</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.563942315248528</v>
+        <v>1.337262373355129</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.514819144195026</v>
+        <v>1.667574684636417</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.604857510824006</v>
+        <v>1.753782032736953</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.518022785706217</v>
+        <v>1.631855342896578</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.723722205900952</v>
+        <v>1.438719207833407</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.576352843409471</v>
+        <v>1.685418980812596</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/07_localizer.xlsx
+++ b/sequences/07_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
     <t>house/house063.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
   </si>
   <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
   </si>
   <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
     <t>flower/flower097.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>face/face090.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.558547973451008</v>
+        <v>1.435209044853075</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.437120105410705</v>
+        <v>1.415096223407897</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.223947727756088</v>
+        <v>1.467173321337997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.402074238179863</v>
+        <v>1.434863100019079</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.802646458232707</v>
+        <v>1.630104527298537</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.71556458415213</v>
+        <v>1.459614915736039</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.721968785122667</v>
+        <v>1.409292093397338</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.506375513638632</v>
+        <v>1.527731011659853</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.448244159234236</v>
+        <v>1.51971708060138</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.647333090983739</v>
+        <v>1.546495401832862</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.637381836327245</v>
+        <v>1.539334010571982</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.592910712105298</v>
+        <v>1.388583637860494</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.661914517996462</v>
+        <v>1.51211618671799</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.673437854119978</v>
+        <v>1.459086013434048</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.511831846895897</v>
+        <v>1.563256463395793</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.393188259489357</v>
+        <v>1.453491610757956</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.392277968065922</v>
+        <v>1.607662961318881</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.703731722851421</v>
+        <v>1.58652271805522</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.66815688775076</v>
+        <v>1.491337830608209</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1.759325072633395</v>
+        <v>1.452807491165684</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.152401891473451</v>
+        <v>1.51943466399511</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.270185348881037</v>
+        <v>1.544176325090345</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.827001053765101</v>
+        <v>1.560541603742834</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.321660873450815</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.490230854477196</v>
+        <v>1.682833749799429</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.656385491783707</v>
+        <v>1.399094921515597</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.589972487341778</v>
+        <v>1.575481646536283</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.40610683802747</v>
+        <v>1.603058821736798</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.373804642893297</v>
+        <v>1.483363542904602</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.205860884904945</v>
+        <v>1.579787168432982</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.401013350247662</v>
+        <v>1.70213270197463</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.518540255550009</v>
+        <v>1.523447922216119</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.42539787015906</v>
+        <v>1.618330556622445</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.358292423778232</v>
+        <v>1.452989642108276</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.355577636838351</v>
+        <v>1.733246808613103</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.522084111406599</v>
+        <v>1.693227678483765</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.379312151592624</v>
+        <v>1.221881162017377</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.280967033795406</v>
+        <v>1.497522254194338</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.560662862325888</v>
+        <v>1.642082585287057</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.60134142631768</v>
+        <v>1.693454694394361</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.292865985345958</v>
+        <v>1.632151936771567</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.453987632199169</v>
+        <v>1.591745060387693</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.484354823062338</v>
+        <v>1.712814519249254</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.44294200794156</v>
+        <v>1.589821572026519</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.239359852215965</v>
+        <v>1.360079760100159</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.489004783456354</v>
+        <v>1.425576580642597</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.578446597088788</v>
+        <v>1.649721750462793</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.511690739893712</v>
+        <v>1.450964590130291</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.527597696417939</v>
+        <v>1.461916074168279</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.436007104468105</v>
+        <v>1.52319136225163</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.675887878569545</v>
+        <v>1.405699076087902</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.747992777167201</v>
+        <v>1.585472371062261</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.595930192689444</v>
+        <v>1.735467995728765</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.424513325145584</v>
+        <v>1.385976920791335</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.464265653738508</v>
+        <v>1.478659266337568</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.422446807968095</v>
+        <v>1.446341028592554</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.808289293796618</v>
+        <v>1.54712576309472</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.491794705384747</v>
+        <v>1.556852003516115</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.424054451032962</v>
+        <v>1.284887282960521</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.546092843861874</v>
+        <v>1.627265821407255</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.541525423353807</v>
+        <v>1.3325341249558</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.597842122273097</v>
+        <v>1.312622879223757</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.695698353255528</v>
+        <v>1.349628507401594</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.18012268650068</v>
+        <v>1.329258840288984</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.61212810815849</v>
+        <v>1.657911339926729</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.467305879223243</v>
+        <v>1.331586341873511</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.832004106336889</v>
+        <v>1.513127653040011</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.452928529556143</v>
+        <v>1.668630812996892</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.493106154299716</v>
+        <v>1.542577111654424</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.597835442861039</v>
+        <v>1.23285252963105</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.209985486136433</v>
+        <v>1.384224009178907</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.324474805338741</v>
+        <v>1.519732279424318</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.547543418876951</v>
+        <v>1.532504838619481</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.1019658294431</v>
+        <v>1.363713178292968</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.604436563717554</v>
+        <v>1.581395042393572</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.420353651984681</v>
+        <v>1.522464861775088</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.360885230476446</v>
+        <v>1.748225723549714</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.495971163370146</v>
+        <v>1.402315169285817</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.547755213369278</v>
+        <v>1.662918609155003</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.685044556715065</v>
+        <v>1.733598517728829</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.60067223861534</v>
+        <v>1.379932302102303</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.468323027755263</v>
+        <v>1.538875603059095</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.755305359525347</v>
+        <v>1.531561627734992</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.62699744953263</v>
+        <v>1.371861203719224</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.761191274258352</v>
+        <v>1.46101301855655</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.518506874434495</v>
+        <v>1.271917902143637</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.551939372137956</v>
+        <v>1.791536374622221</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.431258093181746</v>
+        <v>1.389896613081934</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.687014771935242</v>
+        <v>1.361172796071894</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.594956409284006</v>
+        <v>1.553968281542548</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.292331904850134</v>
+        <v>1.666690259311553</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.358250155502414</v>
+        <v>1.33153577731596</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.550504082665696</v>
+        <v>1.644711519692299</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.313656183268074</v>
+        <v>1.671779520049812</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.559534954522178</v>
+        <v>1.701550225784866</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.181364316144068</v>
+        <v>1.651337992350148</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.500498296447278</v>
+        <v>1.516046749973166</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.324624412109894</v>
+        <v>1.460031144552693</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.634492198045211</v>
+        <v>1.544662128200277</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.534898759515295</v>
+        <v>1.406546019232445</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.557137505620345</v>
+        <v>1.674293348403338</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.446682911732237</v>
+        <v>1.377228196849683</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.426343664901983</v>
+        <v>1.294395031372325</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.62493786071941</v>
+        <v>1.421199982837519</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.914660350656788</v>
+        <v>1.208968025678439</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.682295203775592</v>
+        <v>1.305604646596792</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.739404919877387</v>
+        <v>1.516449337415805</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.708685761121606</v>
+        <v>1.582759527701047</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.479463526641253</v>
+        <v>1.514196608820688</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.439764298124952</v>
+        <v>1.360372971085569</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.310889797994684</v>
+        <v>1.571158463761962</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.533796045149375</v>
+        <v>1.19482113683864</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.45100712575009</v>
+        <v>1.425136013255173</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.681676623265558</v>
+        <v>1.583871284894379</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.577998320879911</v>
+        <v>1.314986142029139</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.481858281160939</v>
+        <v>1.799511503858305</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.441555950668157</v>
+        <v>1.506538860348734</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.665977948160486</v>
+        <v>1.348322540365885</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.590070798073748</v>
+        <v>1.662611765727375</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.434179096112315</v>
+        <v>1.41004521682346</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.533449655865085</v>
+        <v>1.553542046830244</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.316482170653309</v>
+        <v>1.573340335036293</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.343419107465441</v>
+        <v>1.683715691705171</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.491667859022879</v>
+        <v>1.11218113145515</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.500987474501917</v>
+        <v>1.511039800293815</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.628142779837937</v>
+        <v>1.620125094627827</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.483642301416328</v>
+        <v>1.609724371668202</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.390621438616306</v>
+        <v>1.472681349646603</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.298245288150385</v>
+        <v>1.68079305387602</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.413148666613319</v>
+        <v>1.314011875457747</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.687728517566143</v>
+        <v>1.416927553704244</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1.621174314324783</v>
+        <v>1.245719136509776</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.469493068808457</v>
+        <v>1.724634625262895</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.654340796530313</v>
+        <v>1.380194761292037</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.687025109256486</v>
+        <v>1.663268374243231</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.49845698021434</v>
+        <v>1.30185729029983</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.321458754869663</v>
+        <v>1.648441310182194</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.230700153278188</v>
+        <v>1.230370744934869</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.612446935966894</v>
+        <v>1.289883535657657</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.538979653515611</v>
+        <v>1.638905556623478</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.330423630476953</v>
+        <v>1.593696046416161</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.530708034486366</v>
+        <v>1.55812804465101</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.590196481993088</v>
+        <v>1.430014574368032</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.647762473543877</v>
+        <v>1.40433306260676</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.440423498051528</v>
+        <v>1.584624542641392</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.446826903127682</v>
+        <v>1.672437376059789</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.53241262578368</v>
+        <v>1.646773759397093</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.490480932459574</v>
+        <v>1.477144231083424</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.488251862673107</v>
+        <v>1.559389565192264</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.424929747932437</v>
+        <v>1.608160479906035</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.524532174035733</v>
+        <v>1.380830266801325</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.457514413161853</v>
+        <v>1.262073683985033</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.406019649152687</v>
+        <v>1.693893121759071</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.640888544677193</v>
+        <v>1.142199877247444</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.574676197225001</v>
+        <v>1.605792776124328</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.54168134130908</v>
+        <v>1.258058121852701</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.683182723498428</v>
+        <v>1.28599293980265</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.754474428650296</v>
+        <v>1.453849018331554</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.516470460504572</v>
+        <v>1.459952061517796</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.555903676809052</v>
+        <v>1.759803400784189</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.369352145627446</v>
+        <v>1.472401509077193</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.583569680367346</v>
+        <v>1.13439099213822</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.229807839273028</v>
+        <v>1.603022407754535</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.568644755045074</v>
+        <v>1.449490962746313</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.650494469658463</v>
+        <v>1.517398242750893</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.673304304013226</v>
+        <v>1.459280867219338</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.57688541383555</v>
+        <v>1.551821330678906</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.486262115410274</v>
+        <v>1.770292191359757</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.527100182524585</v>
+        <v>1.331348936920688</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.267722242525759</v>
+        <v>1.802087738550649</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.422118875012734</v>
+        <v>1.495368211535215</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.473325481405969</v>
+        <v>1.141132310374422</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.438661823575596</v>
+        <v>1.135470038063762</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.591426437142232</v>
+        <v>1.492739295161346</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.630571245792824</v>
+        <v>1.715005567659686</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.504755969951058</v>
+        <v>1.668146461368698</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.458298186050749</v>
+        <v>1.548622134670743</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.480892567154579</v>
+        <v>1.515133113926603</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.592693555376044</v>
+        <v>1.555691084216076</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.779740013601679</v>
+        <v>1.02225176833437</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.066926180664486</v>
+        <v>1.6681882228212</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.678226060440992</v>
+        <v>1.719301157957027</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.570138213897005</v>
+        <v>1.289095816565106</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.521058947596668</v>
+        <v>1.905893441947223</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.331569155371739</v>
+        <v>1.414480988319819</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.504261043531137</v>
+        <v>1.540275570509345</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.651897920068534</v>
+        <v>1.430545568015575</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.665769037775409</v>
+        <v>1.620598464205965</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.742889787821366</v>
+        <v>1.486870753626761</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.539972765337896</v>
+        <v>1.558757182742366</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.380630390461228</v>
+        <v>1.34901019163204</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.349897286077762</v>
+        <v>1.425432171531124</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.278596637590028</v>
+        <v>1.493886866512055</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.646042060823923</v>
+        <v>1.596831678072606</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.468051596652765</v>
+        <v>1.618051918581189</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.512702672187839</v>
+        <v>1.412720806283646</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.557364218969714</v>
+        <v>1.746059843079686</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.295751518278112</v>
+        <v>1.618706001525012</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.366687282007656</v>
+        <v>1.340485841575725</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.446349323335137</v>
+        <v>1.748797133567904</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.491587345263099</v>
+        <v>1.415580961239661</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.573173898870978</v>
+        <v>1.53821991078748</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.516158610865525</v>
+        <v>1.644888088747531</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.308492677008795</v>
+        <v>1.355357054043558</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.750879776226381</v>
+        <v>1.499818097179922</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.635536607780253</v>
+        <v>1.706463075992904</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.917667368036394</v>
+        <v>1.553951022579916</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.525158643078127</v>
+        <v>1.607835253803449</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.465888133123811</v>
+        <v>1.405161163745269</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.59162079408457</v>
+        <v>1.651309201497285</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.82940047459664</v>
+        <v>1.186804487692573</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.728460342600418</v>
+        <v>1.54427393543877</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.377651101641411</v>
+        <v>1.555186951193525</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.46108781662613</v>
+        <v>1.373275896618714</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.52209660550637</v>
+        <v>1.486140082300774</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.732473083109865</v>
+        <v>1.398406091510592</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.517798815382181</v>
+        <v>1.262939794681291</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.75595108550744</v>
+        <v>1.348610898369125</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.460795847200484</v>
+        <v>1.640749586824682</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.416843177318649</v>
+        <v>1.425174362212422</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.723320011909805</v>
+        <v>1.502239288118679</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.504484384217774</v>
+        <v>1.296370753223066</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.350377805983902</v>
+        <v>1.658726968456875</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.479493986286228</v>
+        <v>1.344899966749949</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.629653630048869</v>
+        <v>1.605644403295098</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.744910592097889</v>
+        <v>1.720909860945968</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.590211394968416</v>
+        <v>1.488176922552413</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.672000799672719</v>
+        <v>1.59201889513767</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.176360802465827</v>
+        <v>1.346326021314281</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.513600530942162</v>
+        <v>1.604002291385879</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.386604843942579</v>
+        <v>1.465125092526317</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.515746096148446</v>
+        <v>1.613329878155883</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.536003798814616</v>
+        <v>1.334987257894362</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.449049504909698</v>
+        <v>1.479518286681802</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.445378758450668</v>
+        <v>1.588717027813097</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.519174716799824</v>
+        <v>1.531933893107299</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.400286005075912</v>
+        <v>1.44590983203017</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.388789073885629</v>
+        <v>1.627113321139763</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.401909404428565</v>
+        <v>1.397017032861473</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.663727182173622</v>
+        <v>1.631136054491052</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.457083821963609</v>
+        <v>1.63272259623891</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.366909874213089</v>
+        <v>1.640271721400584</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.426373807373419</v>
+        <v>1.68462921833942</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.42761122256516</v>
+        <v>1.510135464538205</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.506707945021482</v>
+        <v>1.558943187121389</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.510240201405638</v>
+        <v>1.752969226022945</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.568548066224512</v>
+        <v>1.682256765568141</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.406821739849239</v>
+        <v>1.612376932452542</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.370556186956066</v>
+        <v>1.762495205075389</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.684997069350586</v>
+        <v>1.453634624108073</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.337262373355129</v>
+        <v>1.680155704985765</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.667574684636417</v>
+        <v>1.492144896685731</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.753782032736953</v>
+        <v>1.608574455596032</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.631855342896578</v>
+        <v>1.558431078301981</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.438719207833407</v>
+        <v>1.682525399707589</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.685418980812596</v>
+        <v>1.547700834045032</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/07_localizer.xlsx
+++ b/sequences/07_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>flower/flower050.jpg</t>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>house/house048.jpg</t>
   </si>
   <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>house/house058.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.435209044853075</v>
+        <v>1.44729992103749</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.415096223407897</v>
+        <v>1.467809720049273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.467173321337997</v>
+        <v>1.648259434271962</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.434863100019079</v>
+        <v>1.339780271337696</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.630104527298537</v>
+        <v>1.433108107800438</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.459614915736039</v>
+        <v>1.61259835956697</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.409292093397338</v>
+        <v>1.456691641869638</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.527731011659853</v>
+        <v>1.65183217614966</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.51971708060138</v>
+        <v>1.513013245610074</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.546495401832862</v>
+        <v>1.400927713715837</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.539334010571982</v>
+        <v>1.225477981934464</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.388583637860494</v>
+        <v>1.587607273187413</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.51211618671799</v>
+        <v>1.148368991024264</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.459086013434048</v>
+        <v>1.77374526409744</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.563256463395793</v>
+        <v>1.507990476298567</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.453491610757956</v>
+        <v>1.278153161444862</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.607662961318881</v>
+        <v>1.342921931089212</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.58652271805522</v>
+        <v>1.648573643547676</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.491337830608209</v>
+        <v>1.317471823547613</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.452807491165684</v>
+        <v>1.357806617007255</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.51943466399511</v>
+        <v>1.492402778851605</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.544176325090345</v>
+        <v>1.627924529649164</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.560541603742834</v>
+        <v>1.520373716448685</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1.46177518878613</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.682833749799429</v>
+        <v>1.6577217028119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.399094921515597</v>
+        <v>1.420086336027993</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.575481646536283</v>
+        <v>1.165817475685674</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.603058821736798</v>
+        <v>1.565998877629756</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.483363542904602</v>
+        <v>1.207427827790251</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.579787168432982</v>
+        <v>1.650910980136507</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.70213270197463</v>
+        <v>1.405964478087784</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.523447922216119</v>
+        <v>1.585280962290398</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.618330556622445</v>
+        <v>1.348934196374859</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.452989642108276</v>
+        <v>1.495516038434405</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.733246808613103</v>
+        <v>1.523709071843169</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.693227678483765</v>
+        <v>1.604508927060445</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.221881162017377</v>
+        <v>1.305244629845011</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.497522254194338</v>
+        <v>1.414745856325672</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.642082585287057</v>
+        <v>1.459902557494004</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.693454694394361</v>
+        <v>1.39965463299571</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.632151936771567</v>
+        <v>1.332385214736985</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.591745060387693</v>
+        <v>1.73813327425508</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.712814519249254</v>
+        <v>1.774624147585509</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.589821572026519</v>
+        <v>1.372212394851803</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.360079760100159</v>
+        <v>1.448889640689854</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.425576580642597</v>
+        <v>1.78282556473494</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.649721750462793</v>
+        <v>1.814234431019143</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.450964590130291</v>
+        <v>1.507749377140392</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.461916074168279</v>
+        <v>1.177711148671517</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.52319136225163</v>
+        <v>1.556709798236725</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.405699076087902</v>
+        <v>1.300776314982903</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.585472371062261</v>
+        <v>1.223376818163334</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.735467995728765</v>
+        <v>1.592713902740991</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.385976920791335</v>
+        <v>1.673097553911373</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.478659266337568</v>
+        <v>1.536450784407695</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.446341028592554</v>
+        <v>1.301934909130762</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.54712576309472</v>
+        <v>1.459272730337642</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.556852003516115</v>
+        <v>1.372070353458929</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.284887282960521</v>
+        <v>1.640914897807928</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.627265821407255</v>
+        <v>1.561364335067503</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.3325341249558</v>
+        <v>1.55209927677865</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.312622879223757</v>
+        <v>1.257250883171883</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.349628507401594</v>
+        <v>1.478300723754685</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.329258840288984</v>
+        <v>1.282433613099592</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.657911339926729</v>
+        <v>1.694449661021056</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.331586341873511</v>
+        <v>1.621536897317374</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.513127653040011</v>
+        <v>1.622036694417255</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.668630812996892</v>
+        <v>1.408347054514421</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.542577111654424</v>
+        <v>1.381604170228985</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.23285252963105</v>
+        <v>1.244418051572998</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.384224009178907</v>
+        <v>1.359471816615325</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.519732279424318</v>
+        <v>1.353141980259557</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.532504838619481</v>
+        <v>1.592560176945225</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.363713178292968</v>
+        <v>1.590369443913263</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.581395042393572</v>
+        <v>1.522700720626089</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.522464861775088</v>
+        <v>1.73570094460604</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.748225723549714</v>
+        <v>1.569455388072938</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.402315169285817</v>
+        <v>1.669048839877983</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.662918609155003</v>
+        <v>1.112853066664966</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.733598517728829</v>
+        <v>1.239192645056706</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.379932302102303</v>
+        <v>1.474652818029419</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.538875603059095</v>
+        <v>1.553705657505364</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.531561627734992</v>
+        <v>1.517900174071597</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.371861203719224</v>
+        <v>1.671340254525272</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.46101301855655</v>
+        <v>1.351545423363856</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.271917902143637</v>
+        <v>1.710828421392549</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.791536374622221</v>
+        <v>1.485091366480702</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.389896613081934</v>
+        <v>1.460816207237608</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.361172796071894</v>
+        <v>1.635698538664985</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.553968281542548</v>
+        <v>1.359001863044629</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.666690259311553</v>
+        <v>1.591315386792542</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.33153577731596</v>
+        <v>1.756615893606974</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.644711519692299</v>
+        <v>1.504562335501027</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.671779520049812</v>
+        <v>1.637253699790226</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.701550225784866</v>
+        <v>1.866007985986677</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.651337992350148</v>
+        <v>1.512975465048694</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.516046749973166</v>
+        <v>1.449336844562759</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.460031144552693</v>
+        <v>1.571991480626254</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.544662128200277</v>
+        <v>1.565795789951374</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.406546019232445</v>
+        <v>1.504092474375605</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.674293348403338</v>
+        <v>1.560644899443054</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.377228196849683</v>
+        <v>1.346307706042623</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.294395031372325</v>
+        <v>1.73104168847745</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.421199982837519</v>
+        <v>1.532735572793355</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.208968025678439</v>
+        <v>1.414771995127629</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.305604646596792</v>
+        <v>1.522487878069424</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.516449337415805</v>
+        <v>1.160635732968776</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.582759527701047</v>
+        <v>1.564720077278046</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.514196608820688</v>
+        <v>1.347026878284982</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.360372971085569</v>
+        <v>1.744885401422966</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.571158463761962</v>
+        <v>1.436271967784735</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.19482113683864</v>
+        <v>1.318426446509593</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.425136013255173</v>
+        <v>1.828690787081517</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.583871284894379</v>
+        <v>1.375086134455659</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.314986142029139</v>
+        <v>1.648269147918275</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.799511503858305</v>
+        <v>1.533874369373716</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.506538860348734</v>
+        <v>1.394003159166819</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.348322540365885</v>
+        <v>1.736552969141026</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.662611765727375</v>
+        <v>1.677303566435253</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.41004521682346</v>
+        <v>1.353797490853573</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.553542046830244</v>
+        <v>1.413830682178733</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.573340335036293</v>
+        <v>1.533293499636264</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.683715691705171</v>
+        <v>1.411950980360867</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1.11218113145515</v>
+        <v>1.168639196194484</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.511039800293815</v>
+        <v>1.59810899419636</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.620125094627827</v>
+        <v>1.54605441350625</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.609724371668202</v>
+        <v>1.214264456302756</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.472681349646603</v>
+        <v>1.364395280652143</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.68079305387602</v>
+        <v>1.492500631793446</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.314011875457747</v>
+        <v>1.632937722124775</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.416927553704244</v>
+        <v>1.514894475319311</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.245719136509776</v>
+        <v>1.443235544870076</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.724634625262895</v>
+        <v>1.645682750575497</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.380194761292037</v>
+        <v>1.302472469771623</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.663268374243231</v>
+        <v>1.533020099003909</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.30185729029983</v>
+        <v>1.463454034174353</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.648441310182194</v>
+        <v>1.528515927119168</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.230370744934869</v>
+        <v>1.640298087060689</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.289883535657657</v>
+        <v>1.699112357357005</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.638905556623478</v>
+        <v>1.455783349755701</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.593696046416161</v>
+        <v>1.727856063924231</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.55812804465101</v>
+        <v>1.527832907936939</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.430014574368032</v>
+        <v>1.598906848647599</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.40433306260676</v>
+        <v>1.516154157442176</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.584624542641392</v>
+        <v>1.666355386133395</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.672437376059789</v>
+        <v>1.63432659860204</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.646773759397093</v>
+        <v>1.398546734690177</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.477144231083424</v>
+        <v>1.626144518381497</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.559389565192264</v>
+        <v>1.405583961146108</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.608160479906035</v>
+        <v>1.346055905387905</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.380830266801325</v>
+        <v>1.59847900944</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>1.262073683985033</v>
+        <v>1.742463779722155</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.693893121759071</v>
+        <v>1.622434255775522</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.142199877247444</v>
+        <v>1.267929108435764</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.605792776124328</v>
+        <v>1.607878554402208</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.258058121852701</v>
+        <v>1.471920647058317</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.28599293980265</v>
+        <v>1.483788658041959</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.453849018331554</v>
+        <v>1.574696518515647</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.459952061517796</v>
+        <v>1.479733730389087</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.759803400784189</v>
+        <v>1.749502834850232</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.472401509077193</v>
+        <v>1.636085588871024</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.13439099213822</v>
+        <v>1.531503636187027</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.603022407754535</v>
+        <v>1.177963061401329</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.449490962746313</v>
+        <v>1.572108994452302</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.517398242750893</v>
+        <v>1.419245492194943</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.459280867219338</v>
+        <v>1.265321726785902</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.551821330678906</v>
+        <v>1.509396265381071</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.770292191359757</v>
+        <v>1.256396922582042</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.331348936920688</v>
+        <v>1.511679373525445</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.802087738550649</v>
+        <v>1.508194949699682</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.495368211535215</v>
+        <v>1.36836332363019</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.141132310374422</v>
+        <v>1.40711830915447</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.135470038063762</v>
+        <v>1.590021237174327</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.492739295161346</v>
+        <v>1.735885991074687</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.715005567659686</v>
+        <v>1.459168853603836</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.668146461368698</v>
+        <v>1.232254238828609</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.548622134670743</v>
+        <v>1.486192096866584</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.515133113926603</v>
+        <v>1.351261312833132</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.555691084216076</v>
+        <v>1.43010430321362</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.02225176833437</v>
+        <v>1.513562402826056</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.6681882228212</v>
+        <v>1.343201777540221</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.719301157957027</v>
+        <v>1.342509998547924</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.289095816565106</v>
+        <v>1.455465556424832</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.905893441947223</v>
+        <v>1.456227400210497</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.414480988319819</v>
+        <v>1.519780962842327</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.540275570509345</v>
+        <v>1.793290680764064</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.430545568015575</v>
+        <v>1.582334988441112</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.620598464205965</v>
+        <v>1.439077048970844</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.486870753626761</v>
+        <v>1.199711495363616</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.558757182742366</v>
+        <v>1.5024075127315</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.34901019163204</v>
+        <v>1.481735054179157</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.425432171531124</v>
+        <v>1.520542286499481</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.493886866512055</v>
+        <v>1.491763261420371</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.596831678072606</v>
+        <v>1.67679102692714</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.618051918581189</v>
+        <v>1.462443277468774</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.412720806283646</v>
+        <v>1.355404406039681</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.746059843079686</v>
+        <v>1.330247106273934</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.618706001525012</v>
+        <v>1.616836055117595</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.340485841575725</v>
+        <v>1.269906963416438</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.748797133567904</v>
+        <v>1.735117961622598</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>1.415580961239661</v>
+        <v>1.489564985807668</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.53821991078748</v>
+        <v>1.365029701715406</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.644888088747531</v>
+        <v>1.589804875839873</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.355357054043558</v>
+        <v>1.505908049444676</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.499818097179922</v>
+        <v>1.418253625267647</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.706463075992904</v>
+        <v>1.492784798028611</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.553951022579916</v>
+        <v>1.356238204461949</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.607835253803449</v>
+        <v>1.509776275274393</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.405161163745269</v>
+        <v>1.719150533025984</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.651309201497285</v>
+        <v>1.534228756564348</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.186804487692573</v>
+        <v>1.430476518624716</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.54427393543877</v>
+        <v>1.580715841413934</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.555186951193525</v>
+        <v>1.264301193742875</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.373275896618714</v>
+        <v>1.698194864943639</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.486140082300774</v>
+        <v>1.623558477256732</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>1.398406091510592</v>
+        <v>1.576363484107631</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.262939794681291</v>
+        <v>1.512844618818163</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.348610898369125</v>
+        <v>1.514196655661633</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.640749586824682</v>
+        <v>1.376233770021208</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.425174362212422</v>
+        <v>1.722308051165447</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.502239288118679</v>
+        <v>1.293407616429838</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.296370753223066</v>
+        <v>1.181502759041353</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.658726968456875</v>
+        <v>1.466459823444344</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.344899966749949</v>
+        <v>1.332995048830527</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.605644403295098</v>
+        <v>1.520799583522336</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.720909860945968</v>
+        <v>1.387978313167882</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.488176922552413</v>
+        <v>1.591300450594826</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.59201889513767</v>
+        <v>1.298067777106445</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.346326021314281</v>
+        <v>1.535708961604017</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.604002291385879</v>
+        <v>1.305097595759541</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.465125092526317</v>
+        <v>1.51213246944124</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.613329878155883</v>
+        <v>1.444155341848347</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.334987257894362</v>
+        <v>1.412179593281261</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.479518286681802</v>
+        <v>1.317868492840281</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.588717027813097</v>
+        <v>1.463748956210927</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.531933893107299</v>
+        <v>1.30393324580307</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.44590983203017</v>
+        <v>1.394403517937537</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.627113321139763</v>
+        <v>1.518880577529682</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.397017032861473</v>
+        <v>1.41523952601436</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.631136054491052</v>
+        <v>1.614573923069038</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.63272259623891</v>
+        <v>1.546646853038764</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.640271721400584</v>
+        <v>1.724963757162536</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.68462921833942</v>
+        <v>1.730444309800258</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.510135464538205</v>
+        <v>1.737137239098993</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.558943187121389</v>
+        <v>1.55497310419832</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.752969226022945</v>
+        <v>1.291239131201217</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.682256765568141</v>
+        <v>1.42983717588052</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.612376932452542</v>
+        <v>1.481135505346755</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.762495205075389</v>
+        <v>1.547072621559544</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.453634624108073</v>
+        <v>1.273605718224884</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.680155704985765</v>
+        <v>1.292790262396766</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.492144896685731</v>
+        <v>1.654688641188149</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.608574455596032</v>
+        <v>1.501528490045408</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.558431078301981</v>
+        <v>1.472753870567411</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.682525399707589</v>
+        <v>1.58847793143296</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.547700834045032</v>
+        <v>1.505641953211029</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/07_localizer.xlsx
+++ b/sequences/07_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
     <t>house/house093.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
     <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.44729992103749</v>
+        <v>1.675059920588874</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.467809720049273</v>
+        <v>1.375231012565747</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.648259434271962</v>
+        <v>1.49645251232117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.339780271337696</v>
+        <v>1.248218131071589</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.433108107800438</v>
+        <v>1.333107835226992</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.61259835956697</v>
+        <v>1.267446243605376</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.456691641869638</v>
+        <v>1.434986937034673</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.65183217614966</v>
+        <v>1.587276627232892</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.513013245610074</v>
+        <v>1.17071416274208</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.400927713715837</v>
+        <v>1.566612309123254</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.225477981934464</v>
+        <v>1.378971359878993</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.587607273187413</v>
+        <v>1.60843474437453</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.148368991024264</v>
+        <v>1.563512151570029</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.77374526409744</v>
+        <v>1.51228639864066</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.507990476298567</v>
+        <v>1.713977597528869</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.278153161444862</v>
+        <v>1.638860258317193</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.342921931089212</v>
+        <v>1.65399008454415</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.648573643547676</v>
+        <v>1.155213270597373</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.317471823547613</v>
+        <v>1.170869192507284</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.357806617007255</v>
+        <v>1.383494664671118</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.492402778851605</v>
+        <v>1.566939558044988</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.627924529649164</v>
+        <v>1.449612950531391</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.520373716448685</v>
+        <v>1.411714539184812</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.46177518878613</v>
+        <v>1.347491298993463</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.6577217028119</v>
+        <v>1.708341754223348</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.420086336027993</v>
+        <v>1.459654298901908</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.165817475685674</v>
+        <v>1.259287139243865</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.565998877629756</v>
+        <v>1.388581412844323</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.207427827790251</v>
+        <v>1.627357992191145</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.650910980136507</v>
+        <v>1.545753731554706</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.405964478087784</v>
+        <v>1.742604255223532</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.585280962290398</v>
+        <v>1.577473243585371</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.348934196374859</v>
+        <v>1.311523101010022</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.495516038434405</v>
+        <v>1.295188973594526</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.523709071843169</v>
+        <v>1.611142725064784</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.604508927060445</v>
+        <v>1.369950770807244</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.305244629845011</v>
+        <v>1.323534553511442</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.414745856325672</v>
+        <v>1.609001209409149</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1.459902557494004</v>
+        <v>1.148712865575099</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.39965463299571</v>
+        <v>1.314539368319347</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.332385214736985</v>
+        <v>1.183553025681772</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.73813327425508</v>
+        <v>1.568741820058695</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.774624147585509</v>
+        <v>1.469380397763218</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.372212394851803</v>
+        <v>1.420168898166416</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.448889640689854</v>
+        <v>1.696895624783312</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1.78282556473494</v>
+        <v>1.573960062729845</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.814234431019143</v>
+        <v>1.676554898645255</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.507749377140392</v>
+        <v>1.461085269331678</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.177711148671517</v>
+        <v>1.366285315568063</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.556709798236725</v>
+        <v>1.597561545159189</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.300776314982903</v>
+        <v>1.400858501350922</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.223376818163334</v>
+        <v>1.321486302691476</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.592713902740991</v>
+        <v>1.467071028276845</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.673097553911373</v>
+        <v>1.481553071436274</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.536450784407695</v>
+        <v>1.431993762947889</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.301934909130762</v>
+        <v>1.311337664048916</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.459272730337642</v>
+        <v>1.39532393520804</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.372070353458929</v>
+        <v>1.496954014363555</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.640914897807928</v>
+        <v>1.462747766451986</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.561364335067503</v>
+        <v>1.362969869972782</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.55209927677865</v>
+        <v>1.545210129845035</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.257250883171883</v>
+        <v>1.521515242479967</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.478300723754685</v>
+        <v>1.613286522215736</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.282433613099592</v>
+        <v>1.67578358331955</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.694449661021056</v>
+        <v>1.53679159672908</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.621536897317374</v>
+        <v>1.357245999984355</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.622036694417255</v>
+        <v>1.505491218635753</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.408347054514421</v>
+        <v>1.663718517885599</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.381604170228985</v>
+        <v>1.344904725425903</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.244418051572998</v>
+        <v>1.714582382549644</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.359471816615325</v>
+        <v>1.386056661687054</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.353141980259557</v>
+        <v>1.383645634447858</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.592560176945225</v>
+        <v>1.256980178645161</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.590369443913263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.522700720626089</v>
+        <v>1.698050257781745</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.73570094460604</v>
+        <v>1.132472764665758</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.569455388072938</v>
+        <v>1.137987517937249</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.669048839877983</v>
+        <v>1.300956944687375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.112853066664966</v>
+        <v>1.4608987073711</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.239192645056706</v>
+        <v>1.503954245756296</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.474652818029419</v>
+        <v>1.342777971447825</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.553705657505364</v>
+        <v>1.4920112360957</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.517900174071597</v>
+        <v>1.393049613743712</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.671340254525272</v>
+        <v>1.497708090895435</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1.351545423363856</v>
+        <v>1.685024137305154</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.710828421392549</v>
+        <v>1.588493670795629</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.485091366480702</v>
+        <v>1.605693626450091</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.460816207237608</v>
+        <v>1.491377901751462</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.635698538664985</v>
+        <v>1.570939414098764</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.359001863044629</v>
+        <v>1.625146078159721</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.591315386792542</v>
+        <v>1.357597123375309</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.756615893606974</v>
+        <v>1.17594024134888</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.504562335501027</v>
+        <v>1.350056306857944</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.637253699790226</v>
+        <v>1.714027132999732</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.866007985986677</v>
+        <v>1.616285268502956</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.512975465048694</v>
+        <v>1.415032725999222</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.449336844562759</v>
+        <v>1.403649415621589</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.571991480626254</v>
+        <v>1.481223949609669</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.565795789951374</v>
+        <v>1.310762439025456</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.504092474375605</v>
+        <v>1.438814159797593</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.560644899443054</v>
+        <v>1.370060427128235</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.346307706042623</v>
+        <v>1.356018829276163</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.73104168847745</v>
+        <v>1.692251618011381</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.532735572793355</v>
+        <v>1.449177746768733</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.414771995127629</v>
+        <v>1.473853701028337</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.522487878069424</v>
+        <v>1.388539145723154</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.160635732968776</v>
+        <v>1.881597336699774</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.564720077278046</v>
+        <v>1.530164070085824</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.347026878284982</v>
+        <v>1.474645240025894</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.744885401422966</v>
+        <v>1.578010308469762</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.436271967784735</v>
+        <v>1.481858112558852</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.318426446509593</v>
+        <v>1.291148380842004</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.828690787081517</v>
+        <v>1.550878558006866</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.375086134455659</v>
+        <v>1.597401384285235</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.648269147918275</v>
+        <v>1.263998087680138</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.533874369373716</v>
+        <v>1.693090368392561</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.394003159166819</v>
+        <v>1.650196269528258</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.736552969141026</v>
+        <v>1.603733823914544</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.677303566435253</v>
+        <v>1.29236073476247</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.353797490853573</v>
+        <v>1.852093292921637</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.413830682178733</v>
+        <v>1.472474361918126</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.533293499636264</v>
+        <v>1.800863066041573</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.411950980360867</v>
+        <v>1.71552302206957</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.168639196194484</v>
+        <v>1.371283841445008</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.59810899419636</v>
+        <v>1.364502861925095</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.54605441350625</v>
+        <v>1.664098577977005</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.214264456302756</v>
+        <v>1.402797730238312</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.364395280652143</v>
+        <v>1.574469273304806</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.492500631793446</v>
+        <v>1.204410569690634</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.632937722124775</v>
+        <v>1.263843330154101</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.514894475319311</v>
+        <v>1.443839721443996</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.443235544870076</v>
+        <v>1.878376720536711</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.645682750575497</v>
+        <v>1.700390119384397</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.302472469771623</v>
+        <v>1.409554065914221</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.533020099003909</v>
+        <v>1.268006957570197</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.463454034174353</v>
+        <v>1.889162880435356</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.528515927119168</v>
+        <v>1.57604263568601</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.640298087060689</v>
+        <v>1.567544574667742</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.699112357357005</v>
+        <v>1.469146227107611</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.455783349755701</v>
+        <v>1.472126161032314</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.727856063924231</v>
+        <v>1.437630997761359</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.527832907936939</v>
+        <v>1.489141264098483</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.598906848647599</v>
+        <v>1.506794816931555</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.516154157442176</v>
+        <v>1.777185355019661</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.666355386133395</v>
+        <v>1.56107276599649</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.63432659860204</v>
+        <v>1.348096592579045</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.398546734690177</v>
+        <v>1.31575257927912</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.626144518381497</v>
+        <v>1.593647099134941</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.405583961146108</v>
+        <v>1.44901370874538</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.346055905387905</v>
+        <v>1.262656657692359</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.59847900944</v>
+        <v>1.393422429242626</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.742463779722155</v>
+        <v>1.346485561990552</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.622434255775522</v>
+        <v>1.577129945935477</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.267929108435764</v>
+        <v>1.58853905490253</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.607878554402208</v>
+        <v>1.283094627699037</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.471920647058317</v>
+        <v>1.735455331327559</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.483788658041959</v>
+        <v>1.535342249729502</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.574696518515647</v>
+        <v>1.445028070968983</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.479733730389087</v>
+        <v>1.420025021941078</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.749502834850232</v>
+        <v>1.462171951258275</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.636085588871024</v>
+        <v>1.811658606255768</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.531503636187027</v>
+        <v>1.400120418530227</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.177963061401329</v>
+        <v>1.359708804935792</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.572108994452302</v>
+        <v>1.544811953943239</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.419245492194943</v>
+        <v>1.649812374187779</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.265321726785902</v>
+        <v>1.724976486332485</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.509396265381071</v>
+        <v>1.406305218048038</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.256396922582042</v>
+        <v>1.292216521250084</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.511679373525445</v>
+        <v>1.38686819682883</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.508194949699682</v>
+        <v>1.42917130096086</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.36836332363019</v>
+        <v>1.361291923861171</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.40711830915447</v>
+        <v>1.783980422187341</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.590021237174327</v>
+        <v>1.616630254747369</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.735885991074687</v>
+        <v>1.489412483166643</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.459168853603836</v>
+        <v>1.461818858265978</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.232254238828609</v>
+        <v>1.691586503661023</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.486192096866584</v>
+        <v>1.393517243591669</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.351261312833132</v>
+        <v>1.63468529052824</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.43010430321362</v>
+        <v>1.627999779219184</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.513562402826056</v>
+        <v>1.721859791696696</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.343201777540221</v>
+        <v>1.452194717068447</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.342509998547924</v>
+        <v>1.32875849195213</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.455465556424832</v>
+        <v>1.755898856265765</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.456227400210497</v>
+        <v>1.481212385842851</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.519780962842327</v>
+        <v>1.53042344636271</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.793290680764064</v>
+        <v>1.594159032228274</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.582334988441112</v>
+        <v>1.563290310420814</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.439077048970844</v>
+        <v>1.34460869231417</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.199711495363616</v>
+        <v>1.478907622476199</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.5024075127315</v>
+        <v>1.765928459791711</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.481735054179157</v>
+        <v>1.22310516434085</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.520542286499481</v>
+        <v>1.270121644080901</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.491763261420371</v>
+        <v>1.401406381252082</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.67679102692714</v>
+        <v>1.3965101483508</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.462443277468774</v>
+        <v>1.420353113436644</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.355404406039681</v>
+        <v>1.480995499703318</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.330247106273934</v>
+        <v>1.518591118915261</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.616836055117595</v>
+        <v>1.759927448592745</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.269906963416438</v>
+        <v>1.537753510279442</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.735117961622598</v>
+        <v>1.326037869805212</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.489564985807668</v>
+        <v>1.617737979275206</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.365029701715406</v>
+        <v>1.674645224811753</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.589804875839873</v>
+        <v>1.477451410897422</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.505908049444676</v>
+        <v>1.416522071618407</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.418253625267647</v>
+        <v>1.686442779088027</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.492784798028611</v>
+        <v>1.599298634557776</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.356238204461949</v>
+        <v>1.389266682841921</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.509776275274393</v>
+        <v>1.077182390471539</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.719150533025984</v>
+        <v>1.326660399105609</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.534228756564348</v>
+        <v>1.36701592932852</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.430476518624716</v>
+        <v>1.510415718472677</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.580715841413934</v>
+        <v>1.454041934438508</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.264301193742875</v>
+        <v>1.604479735123645</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.698194864943639</v>
+        <v>1.487463911123416</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.623558477256732</v>
+        <v>1.361284342720965</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.576363484107631</v>
+        <v>1.356659670352714</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.512844618818163</v>
+        <v>1.416296078946957</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.514196655661633</v>
+        <v>1.583531031127071</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.376233770021208</v>
+        <v>1.589889453304838</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.722308051165447</v>
+        <v>1.203880361280854</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.293407616429838</v>
+        <v>1.652159569403896</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.181502759041353</v>
+        <v>1.463720133745067</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.466459823444344</v>
+        <v>1.510040215719769</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.332995048830527</v>
+        <v>1.689731194768876</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.520799583522336</v>
+        <v>1.348095959579855</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.387978313167882</v>
+        <v>1.43016472188382</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.591300450594826</v>
+        <v>1.237819091778547</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.298067777106445</v>
+        <v>1.488780948861675</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.535708961604017</v>
+        <v>1.450851352995349</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.305097595759541</v>
+        <v>1.545230923714314</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.51213246944124</v>
+        <v>1.57834772347214</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.444155341848347</v>
+        <v>1.618161644473754</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>1.412179593281261</v>
+        <v>1.195866279538194</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.317868492840281</v>
+        <v>1.827923055279864</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.463748956210927</v>
+        <v>1.505750307993118</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.30393324580307</v>
+        <v>1.573816589152636</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.394403517937537</v>
+        <v>1.416814673722441</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.518880577529682</v>
+        <v>1.670260909164068</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.41523952601436</v>
+        <v>1.506702976060684</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.614573923069038</v>
+        <v>1.442399199437106</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.546646853038764</v>
+        <v>1.650875282299523</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.724963757162536</v>
+        <v>1.41818429707689</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.730444309800258</v>
+        <v>1.443798509953009</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.737137239098993</v>
+        <v>1.701164847305839</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.55497310419832</v>
+        <v>1.385483333665663</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.291239131201217</v>
+        <v>1.540383339401256</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.42983717588052</v>
+        <v>1.496726453476208</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.481135505346755</v>
+        <v>1.449209345025686</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.547072621559544</v>
+        <v>1.237447372320443</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.273605718224884</v>
+        <v>1.380738860851749</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.292790262396766</v>
+        <v>1.419002203965821</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.654688641188149</v>
+        <v>1.60239435507781</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.501528490045408</v>
+        <v>1.534930581325135</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.472753870567411</v>
+        <v>1.692590885500236</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.58847793143296</v>
+        <v>1.186781570772508</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.505641953211029</v>
+        <v>1.208177530266235</v>
       </c>
     </row>
   </sheetData>
